--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Generics-vs-C5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13395" windowHeight="13605"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>HashSet.Add</t>
   </si>
@@ -70,17 +75,52 @@
   </si>
   <si>
     <t>Time (Milliseconds)</t>
+  </si>
+  <si>
+    <t>C5.HashSet.Add</t>
+  </si>
+  <si>
+    <t>C5.ArrayList.Add</t>
+  </si>
+  <si>
+    <t>C5.HashDictionary.Add</t>
+  </si>
+  <si>
+    <t>C5.HashDictionary[n] = n</t>
+  </si>
+  <si>
+    <t>C5.HashSet.Contains</t>
+  </si>
+  <si>
+    <t>C5.ArrayList.Contains</t>
+  </si>
+  <si>
+    <t>C5.HashDictionary.Contains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5.HashDictionary.Contains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5.HashSet.Remove</t>
+  </si>
+  <si>
+    <t>C5.ArrayList.Remove</t>
+  </si>
+  <si>
+    <t>C5.HashDictionary.Remove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,8 +128,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,16 +245,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -226,23 +291,49 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Value Type</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>HashSet.Add</c:v>
                 </c:pt>
@@ -254,27 +345,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Dictionary[n] = n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5.HashSet.Add</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5.ArrayList.Add</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C5.HashDictionary.Add</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C5.HashDictionary[n] = n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,51 +401,96 @@
           <c:tx>
             <c:v>Ref Type</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$12</c:f>
+              <c:f>Sheet1!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>475</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>536</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>479</c:v>
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="73432448"/>
-        <c:axId val="73484160"/>
+        <c:axId val="1823529152"/>
+        <c:axId val="1823528064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73432448"/>
+        <c:axId val="1823529152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73484160"/>
+        <c:crossAx val="1823528064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73484160"/>
+        <c:axId val="1823528064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,8 +498,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="73432448"/>
+        <c:crossAx val="1823529152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -347,6 +508,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -354,6 +516,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -365,7 +529,7 @@
           <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -378,7 +542,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -397,23 +571,49 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Value Type</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$15:$B$18</c:f>
+              <c:f>Sheet1!$B$23:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>HashSet.Contains</c:v>
                 </c:pt>
@@ -425,27 +625,45 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Dictionary.ContainsValue</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5.HashSet.Contains</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5.ArrayList.Contains</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C5.HashDictionary.Contains</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$C$18</c:f>
+              <c:f>Sheet1!$C$23:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232</c:v>
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,11 +675,34 @@
           <c:tx>
             <c:v>Ref Type</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$15:$B$18</c:f>
+              <c:f>Sheet1!$B$23:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>HashSet.Contains</c:v>
                 </c:pt>
@@ -473,55 +714,83 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Dictionary.ContainsValue</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5.HashSet.Contains</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5.ArrayList.Contains</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C5.HashDictionary.Contains</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:f>Sheet1!$C$32:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>364</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>547</c:v>
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="93899008"/>
-        <c:axId val="94003200"/>
+        <c:axId val="1823526976"/>
+        <c:axId val="1823527520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93899008"/>
+        <c:axId val="1823526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94003200"/>
+        <c:crossAx val="1823527520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94003200"/>
+        <c:axId val="1823527520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,8 +798,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93899008"/>
+        <c:crossAx val="1823526976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -538,6 +808,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -545,6 +816,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -556,7 +829,7 @@
           <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -569,7 +842,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -588,23 +871,49 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Value Type</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$32:$B$34</c:f>
+              <c:f>Sheet1!$B$49:$B$54</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>HashSet.Remove</c:v>
                 </c:pt>
@@ -613,23 +922,41 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dictionary.Remove</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C5.HashSet.Remove</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5.ArrayList.Remove</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5.HashDictionary.Remove</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$C$29</c:f>
+              <c:f>Sheet1!$C$41:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -642,11 +969,34 @@
           <c:tx>
             <c:v>Ref Type</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$32:$B$34</c:f>
+              <c:f>Sheet1!$B$49:$B$54</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>HashSet.Remove</c:v>
                 </c:pt>
@@ -655,52 +1005,80 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dictionary.Remove</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C5.HashSet.Remove</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5.ArrayList.Remove</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C5.HashDictionary.Remove</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$C$34</c:f>
+              <c:f>Sheet1!$C$49:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="96614272"/>
-        <c:axId val="96615808"/>
+        <c:axId val="1823522624"/>
+        <c:axId val="1823530784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96614272"/>
+        <c:axId val="1823522624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96615808"/>
+        <c:crossAx val="1823530784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96615808"/>
+        <c:axId val="1823530784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,8 +1086,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="96614272"/>
+        <c:crossAx val="1823522624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -717,6 +1096,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -724,6 +1104,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -735,7 +1117,7 @@
           <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -758,7 +1140,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -782,13 +1164,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -812,13 +1194,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -842,7 +1224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,7 +1266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,9 +1298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,6 +1333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1125,22 +1509,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:3">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1148,228 +1532,389 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:3">
-      <c r="B8" s="6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B12" s="4" t="s">
+      <c r="C15" s="3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="14" spans="2:3">
-      <c r="B14" s="6" t="s">
+      <c r="C16" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="26" spans="2:3">
-      <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="C26" s="3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="31" spans="2:3">
+    <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B34" s="4" t="s">
+      <c r="C42" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C43" s="3">
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1377,25 +1922,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Generics-vs-C5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Generics-vs-C5-on-Unity3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>HashSet.Add</t>
   </si>
@@ -95,14 +95,6 @@
     <t>C5.ArrayList.Contains</t>
   </si>
   <si>
-    <t>C5.HashDictionary.Contains</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5.HashDictionary.Contains</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C5.HashSet.Remove</t>
   </si>
   <si>
@@ -110,12 +102,15 @@
   </si>
   <si>
     <t>C5.HashDictionary.Remove</t>
+  </si>
+  <si>
+    <t>C5.HashDictionary.ContainsKey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +256,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -290,7 +285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -324,7 +318,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -368,32 +361,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>649</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>715</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>711</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02C9-4D72-A5E6-8F1224904F23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -419,7 +417,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -431,32 +428,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>481</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>474</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>949</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>896</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>884</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02C9-4D72-A5E6-8F1224904F23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -507,7 +509,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -541,7 +542,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -570,7 +571,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -604,7 +604,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -633,7 +632,7 @@
                   <c:v>C5.ArrayList.Contains</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>C5.HashDictionary.Contains</c:v>
+                  <c:v>C5.HashDictionary.ContainsKey</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -648,19 +647,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>463</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>677</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>357</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -668,6 +667,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDAE-4EE4-8526-B131F173AB99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -693,7 +697,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -722,7 +725,7 @@
                   <c:v>C5.ArrayList.Contains</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>C5.HashDictionary.Contains</c:v>
+                  <c:v>C5.HashDictionary.ContainsKey</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -737,19 +740,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>545</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1023</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>386</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -757,6 +760,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDAE-4EE4-8526-B131F173AB99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -807,7 +815,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -841,7 +848,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -870,7 +877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -904,7 +910,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -945,7 +950,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -954,7 +959,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>359</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -962,6 +967,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D164-4867-A5FC-1AD8639D573A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -987,7 +997,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1028,7 +1037,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1037,14 +1046,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>381</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D164-4867-A5FC-1AD8639D573A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1095,7 +1109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1145,7 +1158,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1175,7 +1194,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1205,7 +1230,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1299,6 +1330,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1334,6 +1382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1512,9 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1537,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -1545,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1553,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -1561,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -1569,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>649</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -1577,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -1585,7 +1648,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>715</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1593,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>711</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1610,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>481</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -1618,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -1626,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>474</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -1634,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>470</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -1642,7 +1705,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="3">
-        <v>949</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -1650,7 +1713,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="3">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -1658,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="3">
-        <v>896</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1666,7 +1729,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="5">
-        <v>884</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1691,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="3">
-        <v>463</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -1707,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>677</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -1723,12 +1786,12 @@
         <v>23</v>
       </c>
       <c r="C28" s="3">
-        <v>357</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -1756,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="3">
-        <v>545</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -1772,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="3">
-        <v>1023</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -1788,12 +1851,12 @@
         <v>23</v>
       </c>
       <c r="C37" s="3">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -1821,7 +1884,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="3">
-        <v>249</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -1834,7 +1897,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1842,15 +1905,15 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3">
-        <v>359</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -1878,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="3">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
@@ -1891,7 +1954,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -1899,18 +1962,18 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="3">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
